--- a/Adopter l'approche Agile/chemincritique.xlsx
+++ b/Adopter l'approche Agile/chemincritique.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cours\DEV201\Adopter l'approche Agile\ms project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cours\DEV202\Adopter l'approche Agile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{099F1255-BEA2-4129-B0AA-699DBDE3D74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{776B378C-95EA-405E-8E98-7A92EDF0920D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>tache</t>
   </si>
@@ -93,12 +93,21 @@
   </si>
   <si>
     <t>h,e</t>
+  </si>
+  <si>
+    <t>5 - Si la date de début du projet est 15/01/2023 et qu'on ne travail pas les samedis et les dimanches le projet se termine quand?</t>
+  </si>
+  <si>
+    <t>6-intégrez les jours fériers du Maroc et recalculer la date de fin du projet</t>
+  </si>
+  <si>
+    <t>7-Faites le meme travail sur msProject</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -444,21 +453,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A6:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="C8:C16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="8.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="1">
-        <v>44927</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -469,7 +476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -479,8 +486,9 @@
       <c r="C7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -494,7 +502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -508,7 +516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
@@ -522,7 +530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -536,7 +544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
@@ -550,7 +558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>7</v>
       </c>
@@ -564,7 +572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
@@ -578,7 +586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>9</v>
       </c>
@@ -592,7 +600,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
@@ -606,24 +614,39 @@
         <v>11</v>
       </c>
     </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Adopter l'approche Agile/chemincritique.xlsx
+++ b/Adopter l'approche Agile/chemincritique.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cours\DEV202\Adopter l'approche Agile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{776B378C-95EA-405E-8E98-7A92EDF0920D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F94A77-2C20-4067-8639-53D58C5B4C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>tache</t>
   </si>
@@ -80,9 +81,6 @@
     <t>b,c</t>
   </si>
   <si>
-    <t>1 - Quand se termine le projet</t>
-  </si>
-  <si>
     <t>2- le chemin critique</t>
   </si>
   <si>
@@ -95,20 +93,127 @@
     <t>h,e</t>
   </si>
   <si>
-    <t>5 - Si la date de début du projet est 15/01/2023 et qu'on ne travail pas les samedis et les dimanches le projet se termine quand?</t>
-  </si>
-  <si>
     <t>6-intégrez les jours fériers du Maroc et recalculer la date de fin du projet</t>
   </si>
   <si>
     <t>7-Faites le meme travail sur msProject</t>
+  </si>
+  <si>
+    <t>1 - Quand se termine le projet (Tracez le diagramme du réseau PERT)</t>
+  </si>
+  <si>
+    <t>5 - Si la date de début du projet est 10/01/2023 et qu'on ne travail pas les samedis et les dimanches le projet se termine quand?</t>
+  </si>
+  <si>
+    <t>Calendrier des fêtes religieuses :</t>
+  </si>
+  <si>
+    <t>Aïd Al Fitr</t>
+  </si>
+  <si>
+    <t>Vendredi 21 et Samedi 22 avril 2023</t>
+  </si>
+  <si>
+    <t>Aid al Adha</t>
+  </si>
+  <si>
+    <t>Mardi 27 et Mercredi 28 juin 2023</t>
+  </si>
+  <si>
+    <t>1er Moharram</t>
+  </si>
+  <si>
+    <t>Jeudi 20 juillet 2023</t>
+  </si>
+  <si>
+    <t>Aid al Mawlid Annabawi (*)</t>
+  </si>
+  <si>
+    <t>Jeudi 28 septembre 2023 (*)</t>
+  </si>
+  <si>
+    <t>Calendrier civil des jours fériés :</t>
+  </si>
+  <si>
+    <t>Nouvel an</t>
+  </si>
+  <si>
+    <r>
+      <t>Dimanche 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF737B9A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>er</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF737B9A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> janvier 2023</t>
+    </r>
+  </si>
+  <si>
+    <t>Manifeste de l’Indépendance</t>
+  </si>
+  <si>
+    <t>Mercredi 11 Janvier 2023</t>
+  </si>
+  <si>
+    <t>Fête du travail</t>
+  </si>
+  <si>
+    <t>Lundi 1er mai 2023</t>
+  </si>
+  <si>
+    <t>Fête du Trône</t>
+  </si>
+  <si>
+    <t>Dimanche 30 Juillet 2023</t>
+  </si>
+  <si>
+    <t>Libération de Oued Ed-Dahab</t>
+  </si>
+  <si>
+    <t>Lundi 14 Août 2023</t>
+  </si>
+  <si>
+    <t>La révolution du Roi et du Peuple</t>
+  </si>
+  <si>
+    <t>Dimanche 20 Août 2023</t>
+  </si>
+  <si>
+    <t>Fête de la Jeunesse</t>
+  </si>
+  <si>
+    <t>Lundi  21 Août 2023</t>
+  </si>
+  <si>
+    <t>Marche verte</t>
+  </si>
+  <si>
+    <t>Lundi 6 Novembre 2023</t>
+  </si>
+  <si>
+    <t>Fête de l’Indépendance</t>
+  </si>
+  <si>
+    <t>Samedi 18 Novembre 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,16 +221,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF233D63"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF737B9A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF737B9A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF737B9A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -133,13 +270,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFE0DEFF"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE0DEFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE0DEFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE0DEFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE0DEFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE0DEFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFE0DEFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE0DEFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE0DEFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE0DEFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE0DEFF"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE0DEFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A6:E24"/>
+  <dimension ref="A3:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,188 +672,324 @@
     <col min="3" max="3" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
       <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
         <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="C12" s="2">
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>9</v>
-      </c>
       <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>10</v>
-      </c>
       <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>21</v>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B023C490-BDAD-4CE0-B133-166CA6CE8E75}">
+  <dimension ref="C4:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="32.109375" customWidth="1"/>
+    <col min="4" max="4" width="61.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:4" ht="87.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="3:4" ht="87.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Adopter l'approche Agile/chemincritique.xlsx
+++ b/Adopter l'approche Agile/chemincritique.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cours\DEV202\Adopter l'approche Agile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F94A77-2C20-4067-8639-53D58C5B4C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D03C01-D0EB-4E49-8EC9-445CB726B4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId2"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
   <si>
     <t>tache</t>
   </si>
@@ -208,12 +209,27 @@
   <si>
     <t>Samedi 18 Novembre 2023</t>
   </si>
+  <si>
+    <t>2- tracez le chemin critique</t>
+  </si>
+  <si>
+    <t>3 - afficher les dates plus tot et plus tard de chaque tache</t>
+  </si>
+  <si>
+    <t>4 - tracez manuellement le diagramme de gantt</t>
+  </si>
+  <si>
+    <t>1 - Trace Manuellement le diagramme PERT et calculez le nombre de jours du projet entier</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,8 +263,23 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,6 +289,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,9 +375,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -346,6 +394,32 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,18 +735,327 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:E21"/>
+  <dimension ref="A2:CT21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="8.44140625" customWidth="1"/>
+    <col min="5" max="5" width="2.88671875" customWidth="1"/>
+    <col min="6" max="6" width="2.88671875" style="11" customWidth="1"/>
+    <col min="7" max="8" width="2.88671875" customWidth="1"/>
+    <col min="9" max="10" width="2.88671875" style="9" customWidth="1"/>
+    <col min="11" max="15" width="2.88671875" customWidth="1"/>
+    <col min="16" max="17" width="2.88671875" style="9" customWidth="1"/>
+    <col min="18" max="22" width="2.88671875" customWidth="1"/>
+    <col min="23" max="24" width="2.88671875" style="9" customWidth="1"/>
+    <col min="25" max="29" width="2.88671875" customWidth="1"/>
+    <col min="30" max="31" width="2.88671875" style="9" customWidth="1"/>
+    <col min="32" max="36" width="2.88671875" customWidth="1"/>
+    <col min="37" max="38" width="2.88671875" style="9" customWidth="1"/>
+    <col min="39" max="43" width="2.88671875" customWidth="1"/>
+    <col min="44" max="45" width="2.88671875" style="9" customWidth="1"/>
+    <col min="46" max="50" width="2.88671875" customWidth="1"/>
+    <col min="51" max="52" width="2.88671875" style="9" customWidth="1"/>
+    <col min="53" max="57" width="2.88671875" customWidth="1"/>
+    <col min="58" max="59" width="2.88671875" style="9" customWidth="1"/>
+    <col min="60" max="64" width="2.88671875" customWidth="1"/>
+    <col min="65" max="66" width="2.88671875" style="9" customWidth="1"/>
+    <col min="67" max="71" width="2.88671875" customWidth="1"/>
+    <col min="72" max="73" width="2.88671875" style="9" customWidth="1"/>
+    <col min="74" max="78" width="2.88671875" customWidth="1"/>
+    <col min="79" max="80" width="2.88671875" style="9" customWidth="1"/>
+    <col min="81" max="98" width="2.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:98" ht="138" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="7">
+        <v>44936</v>
+      </c>
+      <c r="F2" s="10">
+        <v>44937</v>
+      </c>
+      <c r="G2" s="7">
+        <v>44938</v>
+      </c>
+      <c r="H2" s="7">
+        <v>44939</v>
+      </c>
+      <c r="I2" s="8">
+        <v>44940</v>
+      </c>
+      <c r="J2" s="8">
+        <v>44941</v>
+      </c>
+      <c r="K2" s="7">
+        <v>44942</v>
+      </c>
+      <c r="L2" s="7">
+        <v>44943</v>
+      </c>
+      <c r="M2" s="7">
+        <v>44944</v>
+      </c>
+      <c r="N2" s="7">
+        <v>44945</v>
+      </c>
+      <c r="O2" s="7">
+        <v>44946</v>
+      </c>
+      <c r="P2" s="8">
+        <v>44947</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>44948</v>
+      </c>
+      <c r="R2" s="7">
+        <v>44949</v>
+      </c>
+      <c r="S2" s="7">
+        <v>44950</v>
+      </c>
+      <c r="T2" s="7">
+        <v>44951</v>
+      </c>
+      <c r="U2" s="7">
+        <v>44952</v>
+      </c>
+      <c r="V2" s="7">
+        <v>44953</v>
+      </c>
+      <c r="W2" s="8">
+        <v>44954</v>
+      </c>
+      <c r="X2" s="8">
+        <v>44955</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>44956</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>44957</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>44958</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>44959</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>44960</v>
+      </c>
+      <c r="AD2" s="8">
+        <v>44961</v>
+      </c>
+      <c r="AE2" s="8">
+        <v>44962</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>44963</v>
+      </c>
+      <c r="AG2" s="7">
+        <v>44964</v>
+      </c>
+      <c r="AH2" s="7">
+        <v>44965</v>
+      </c>
+      <c r="AI2" s="7">
+        <v>44966</v>
+      </c>
+      <c r="AJ2" s="7">
+        <v>44967</v>
+      </c>
+      <c r="AK2" s="8">
+        <v>44968</v>
+      </c>
+      <c r="AL2" s="8">
+        <v>44969</v>
+      </c>
+      <c r="AM2" s="7">
+        <v>44970</v>
+      </c>
+      <c r="AN2" s="7">
+        <v>44971</v>
+      </c>
+      <c r="AO2" s="7">
+        <v>44972</v>
+      </c>
+      <c r="AP2" s="7">
+        <v>44973</v>
+      </c>
+      <c r="AQ2" s="7">
+        <v>44974</v>
+      </c>
+      <c r="AR2" s="8">
+        <v>44975</v>
+      </c>
+      <c r="AS2" s="8">
+        <v>44976</v>
+      </c>
+      <c r="AT2" s="7">
+        <v>44977</v>
+      </c>
+      <c r="AU2" s="7">
+        <v>44978</v>
+      </c>
+      <c r="AV2" s="7">
+        <v>44979</v>
+      </c>
+      <c r="AW2" s="7">
+        <v>44980</v>
+      </c>
+      <c r="AX2" s="7">
+        <v>44981</v>
+      </c>
+      <c r="AY2" s="8">
+        <v>44982</v>
+      </c>
+      <c r="AZ2" s="8">
+        <v>44983</v>
+      </c>
+      <c r="BA2" s="7">
+        <v>44984</v>
+      </c>
+      <c r="BB2" s="7">
+        <v>44985</v>
+      </c>
+      <c r="BC2" s="7">
+        <v>44986</v>
+      </c>
+      <c r="BD2" s="7">
+        <v>44987</v>
+      </c>
+      <c r="BE2" s="7">
+        <v>44988</v>
+      </c>
+      <c r="BF2" s="8">
+        <v>44989</v>
+      </c>
+      <c r="BG2" s="8">
+        <v>44990</v>
+      </c>
+      <c r="BH2" s="7">
+        <v>44991</v>
+      </c>
+      <c r="BI2" s="7">
+        <v>44992</v>
+      </c>
+      <c r="BJ2" s="7">
+        <v>44993</v>
+      </c>
+      <c r="BK2" s="7">
+        <v>44994</v>
+      </c>
+      <c r="BL2" s="7">
+        <v>44995</v>
+      </c>
+      <c r="BM2" s="8">
+        <v>44996</v>
+      </c>
+      <c r="BN2" s="8">
+        <v>44997</v>
+      </c>
+      <c r="BO2" s="7">
+        <v>44998</v>
+      </c>
+      <c r="BP2" s="7">
+        <v>44999</v>
+      </c>
+      <c r="BQ2" s="7">
+        <v>45000</v>
+      </c>
+      <c r="BR2" s="7">
+        <v>45001</v>
+      </c>
+      <c r="BS2" s="7">
+        <v>45002</v>
+      </c>
+      <c r="BT2" s="8">
+        <v>45003</v>
+      </c>
+      <c r="BU2" s="8">
+        <v>45004</v>
+      </c>
+      <c r="BV2" s="7">
+        <v>45005</v>
+      </c>
+      <c r="BW2" s="7">
+        <v>45006</v>
+      </c>
+      <c r="BX2" s="7">
+        <v>45007</v>
+      </c>
+      <c r="BY2" s="7">
+        <v>45008</v>
+      </c>
+      <c r="BZ2" s="7">
+        <v>45009</v>
+      </c>
+      <c r="CA2" s="8">
+        <v>45010</v>
+      </c>
+      <c r="CB2" s="8">
+        <v>45011</v>
+      </c>
+      <c r="CC2" s="7">
+        <v>45012</v>
+      </c>
+      <c r="CD2" s="7">
+        <v>45013</v>
+      </c>
+      <c r="CE2" s="7">
+        <v>45014</v>
+      </c>
+      <c r="CF2" s="7">
+        <v>45015</v>
+      </c>
+      <c r="CG2" s="7">
+        <v>45016</v>
+      </c>
+      <c r="CH2" s="7">
+        <v>45017</v>
+      </c>
+      <c r="CI2" s="7">
+        <v>45018</v>
+      </c>
+      <c r="CJ2" s="7">
+        <v>45019</v>
+      </c>
+      <c r="CK2" s="7">
+        <v>45020</v>
+      </c>
+      <c r="CL2" s="7">
+        <v>45021</v>
+      </c>
+      <c r="CM2" s="7">
+        <v>45022</v>
+      </c>
+      <c r="CN2" s="7">
+        <v>45023</v>
+      </c>
+      <c r="CO2" s="7">
+        <v>45024</v>
+      </c>
+      <c r="CP2" s="7">
+        <v>45025</v>
+      </c>
+      <c r="CQ2" s="7">
+        <v>45026</v>
+      </c>
+      <c r="CR2" s="7">
+        <v>45027</v>
+      </c>
+      <c r="CS2" s="7">
+        <v>45028</v>
+      </c>
+      <c r="CT2" s="7">
+        <v>45029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -683,150 +1066,222 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+    </row>
+    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+    </row>
+    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>6</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+    </row>
+    <row r="8" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>5</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="13"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
+    </row>
+    <row r="9" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>2</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>4</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+    </row>
+    <row r="11" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>5</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+    </row>
+    <row r="12" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>12</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="13"/>
+      <c r="AU12" s="13"/>
+      <c r="AV12" s="13"/>
+      <c r="AW12" s="13"/>
+      <c r="AX12" s="13"/>
+      <c r="AY12" s="13"/>
+      <c r="AZ12" s="13"/>
+      <c r="BA12" s="13"/>
+      <c r="BB12" s="13"/>
+      <c r="BC12" s="13"/>
+      <c r="BD12" s="13"/>
+      <c r="BE12" s="13"/>
+    </row>
+    <row r="13" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>5</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="BH13" s="13"/>
+      <c r="BI13" s="13"/>
+      <c r="BJ13" s="13"/>
+      <c r="BK13" s="13"/>
+      <c r="BL13" s="13"/>
+    </row>
+    <row r="15" spans="1:98" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:98" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -862,10 +1317,1005 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1099813-81F3-412C-91AD-0173A993FC2C}">
+  <dimension ref="B4:HO23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="25" ySplit="7" topLeftCell="AN17" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z1" sqref="Z1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23:P23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="8.77734375" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" style="11" customWidth="1"/>
+    <col min="8" max="9" width="4.6640625" customWidth="1"/>
+    <col min="10" max="11" width="4.6640625" style="9" customWidth="1"/>
+    <col min="12" max="16" width="4.6640625" customWidth="1"/>
+    <col min="17" max="18" width="4.6640625" style="9" customWidth="1"/>
+    <col min="19" max="23" width="4.6640625" customWidth="1"/>
+    <col min="24" max="25" width="4.6640625" style="9" customWidth="1"/>
+    <col min="26" max="30" width="4.6640625" customWidth="1"/>
+    <col min="31" max="32" width="4.6640625" style="9" customWidth="1"/>
+    <col min="33" max="37" width="4.6640625" customWidth="1"/>
+    <col min="38" max="39" width="4.6640625" style="9" customWidth="1"/>
+    <col min="40" max="44" width="4.6640625" customWidth="1"/>
+    <col min="45" max="46" width="4.6640625" style="9" customWidth="1"/>
+    <col min="47" max="51" width="4.6640625" customWidth="1"/>
+    <col min="52" max="53" width="4.6640625" style="9" customWidth="1"/>
+    <col min="54" max="58" width="4.6640625" customWidth="1"/>
+    <col min="59" max="60" width="4.6640625" style="9" customWidth="1"/>
+    <col min="61" max="65" width="4.6640625" customWidth="1"/>
+    <col min="66" max="67" width="4.6640625" style="9" customWidth="1"/>
+    <col min="68" max="72" width="4.6640625" customWidth="1"/>
+    <col min="73" max="74" width="4.6640625" style="9" customWidth="1"/>
+    <col min="75" max="79" width="4.6640625" customWidth="1"/>
+    <col min="80" max="81" width="4.6640625" style="9" customWidth="1"/>
+    <col min="82" max="86" width="4.6640625" customWidth="1"/>
+    <col min="87" max="88" width="4.6640625" style="9" customWidth="1"/>
+    <col min="89" max="93" width="4.6640625" customWidth="1"/>
+    <col min="94" max="95" width="4.6640625" style="9" customWidth="1"/>
+    <col min="96" max="100" width="4.6640625" customWidth="1"/>
+    <col min="101" max="102" width="4.6640625" style="9" customWidth="1"/>
+    <col min="103" max="107" width="4.6640625" customWidth="1"/>
+    <col min="108" max="109" width="4.6640625" style="9" customWidth="1"/>
+    <col min="110" max="114" width="4.6640625" customWidth="1"/>
+    <col min="115" max="116" width="4.6640625" style="9" customWidth="1"/>
+    <col min="117" max="153" width="4.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:223" ht="184.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="16">
+        <v>44936</v>
+      </c>
+      <c r="G4" s="18">
+        <v>44937</v>
+      </c>
+      <c r="H4" s="16">
+        <v>44938</v>
+      </c>
+      <c r="I4" s="16">
+        <v>44939</v>
+      </c>
+      <c r="J4" s="17">
+        <v>44940</v>
+      </c>
+      <c r="K4" s="17">
+        <v>44941</v>
+      </c>
+      <c r="L4" s="16">
+        <v>44942</v>
+      </c>
+      <c r="M4" s="16">
+        <v>44943</v>
+      </c>
+      <c r="N4" s="16">
+        <v>44944</v>
+      </c>
+      <c r="O4" s="16">
+        <v>44945</v>
+      </c>
+      <c r="P4" s="16">
+        <v>44946</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>44947</v>
+      </c>
+      <c r="R4" s="17">
+        <v>44948</v>
+      </c>
+      <c r="S4" s="16">
+        <v>44949</v>
+      </c>
+      <c r="T4" s="16">
+        <v>44950</v>
+      </c>
+      <c r="U4" s="16">
+        <v>44951</v>
+      </c>
+      <c r="V4" s="16">
+        <v>44952</v>
+      </c>
+      <c r="W4" s="16">
+        <v>44953</v>
+      </c>
+      <c r="X4" s="17">
+        <v>44954</v>
+      </c>
+      <c r="Y4" s="17">
+        <v>44955</v>
+      </c>
+      <c r="Z4" s="16">
+        <v>44956</v>
+      </c>
+      <c r="AA4" s="16">
+        <v>44957</v>
+      </c>
+      <c r="AB4" s="16">
+        <v>44958</v>
+      </c>
+      <c r="AC4" s="16">
+        <v>44959</v>
+      </c>
+      <c r="AD4" s="16">
+        <v>44960</v>
+      </c>
+      <c r="AE4" s="17">
+        <v>44961</v>
+      </c>
+      <c r="AF4" s="17">
+        <v>44962</v>
+      </c>
+      <c r="AG4" s="16">
+        <v>44963</v>
+      </c>
+      <c r="AH4" s="16">
+        <v>44964</v>
+      </c>
+      <c r="AI4" s="16">
+        <v>44965</v>
+      </c>
+      <c r="AJ4" s="16">
+        <v>44966</v>
+      </c>
+      <c r="AK4" s="16">
+        <v>44967</v>
+      </c>
+      <c r="AL4" s="17">
+        <v>44968</v>
+      </c>
+      <c r="AM4" s="17">
+        <v>44969</v>
+      </c>
+      <c r="AN4" s="16">
+        <v>44970</v>
+      </c>
+      <c r="AO4" s="16">
+        <v>44971</v>
+      </c>
+      <c r="AP4" s="16">
+        <v>44972</v>
+      </c>
+      <c r="AQ4" s="16">
+        <v>44973</v>
+      </c>
+      <c r="AR4" s="16">
+        <v>44974</v>
+      </c>
+      <c r="AS4" s="17">
+        <v>44975</v>
+      </c>
+      <c r="AT4" s="17">
+        <v>44976</v>
+      </c>
+      <c r="AU4" s="16">
+        <v>44977</v>
+      </c>
+      <c r="AV4" s="16">
+        <v>44978</v>
+      </c>
+      <c r="AW4" s="16">
+        <v>44979</v>
+      </c>
+      <c r="AX4" s="16">
+        <v>44980</v>
+      </c>
+      <c r="AY4" s="16">
+        <v>44981</v>
+      </c>
+      <c r="AZ4" s="17">
+        <v>44982</v>
+      </c>
+      <c r="BA4" s="17">
+        <v>44983</v>
+      </c>
+      <c r="BB4" s="16">
+        <v>44984</v>
+      </c>
+      <c r="BC4" s="16">
+        <v>44985</v>
+      </c>
+      <c r="BD4" s="16">
+        <v>44986</v>
+      </c>
+      <c r="BE4" s="16">
+        <v>44987</v>
+      </c>
+      <c r="BF4" s="16">
+        <v>44988</v>
+      </c>
+      <c r="BG4" s="17">
+        <v>44989</v>
+      </c>
+      <c r="BH4" s="17">
+        <v>44990</v>
+      </c>
+      <c r="BI4" s="16">
+        <v>44991</v>
+      </c>
+      <c r="BJ4" s="16">
+        <v>44992</v>
+      </c>
+      <c r="BK4" s="16">
+        <v>44993</v>
+      </c>
+      <c r="BL4" s="16">
+        <v>44994</v>
+      </c>
+      <c r="BM4" s="16">
+        <v>44995</v>
+      </c>
+      <c r="BN4" s="17">
+        <v>44996</v>
+      </c>
+      <c r="BO4" s="17">
+        <v>44997</v>
+      </c>
+      <c r="BP4" s="16">
+        <v>44998</v>
+      </c>
+      <c r="BQ4" s="16">
+        <v>44999</v>
+      </c>
+      <c r="BR4" s="16">
+        <v>45000</v>
+      </c>
+      <c r="BS4" s="16">
+        <v>45001</v>
+      </c>
+      <c r="BT4" s="16">
+        <v>45002</v>
+      </c>
+      <c r="BU4" s="17">
+        <v>45003</v>
+      </c>
+      <c r="BV4" s="17">
+        <v>45004</v>
+      </c>
+      <c r="BW4" s="16">
+        <v>45005</v>
+      </c>
+      <c r="BX4" s="16">
+        <v>45006</v>
+      </c>
+      <c r="BY4" s="16">
+        <v>45007</v>
+      </c>
+      <c r="BZ4" s="16">
+        <v>45008</v>
+      </c>
+      <c r="CA4" s="16">
+        <v>45009</v>
+      </c>
+      <c r="CB4" s="17">
+        <v>45010</v>
+      </c>
+      <c r="CC4" s="17">
+        <v>45011</v>
+      </c>
+      <c r="CD4" s="16">
+        <v>45012</v>
+      </c>
+      <c r="CE4" s="16">
+        <v>45013</v>
+      </c>
+      <c r="CF4" s="16">
+        <v>45014</v>
+      </c>
+      <c r="CG4" s="16">
+        <v>45015</v>
+      </c>
+      <c r="CH4" s="16">
+        <v>45016</v>
+      </c>
+      <c r="CI4" s="17">
+        <v>45017</v>
+      </c>
+      <c r="CJ4" s="17">
+        <v>45018</v>
+      </c>
+      <c r="CK4" s="16">
+        <v>45019</v>
+      </c>
+      <c r="CL4" s="16">
+        <v>45020</v>
+      </c>
+      <c r="CM4" s="16">
+        <v>45021</v>
+      </c>
+      <c r="CN4" s="16">
+        <v>45022</v>
+      </c>
+      <c r="CO4" s="16">
+        <v>45023</v>
+      </c>
+      <c r="CP4" s="17">
+        <v>45024</v>
+      </c>
+      <c r="CQ4" s="17">
+        <v>45025</v>
+      </c>
+      <c r="CR4" s="16">
+        <v>45026</v>
+      </c>
+      <c r="CS4" s="16">
+        <v>45027</v>
+      </c>
+      <c r="CT4" s="16">
+        <v>45028</v>
+      </c>
+      <c r="CU4" s="16">
+        <v>45029</v>
+      </c>
+      <c r="CV4" s="16">
+        <v>45030</v>
+      </c>
+      <c r="CW4" s="17">
+        <v>45031</v>
+      </c>
+      <c r="CX4" s="17">
+        <v>45032</v>
+      </c>
+      <c r="CY4" s="16">
+        <v>45033</v>
+      </c>
+      <c r="CZ4" s="16">
+        <v>45034</v>
+      </c>
+      <c r="DA4" s="16">
+        <v>45035</v>
+      </c>
+      <c r="DB4" s="16">
+        <v>45036</v>
+      </c>
+      <c r="DC4" s="16">
+        <v>45037</v>
+      </c>
+      <c r="DD4" s="17">
+        <v>45038</v>
+      </c>
+      <c r="DE4" s="17">
+        <v>45039</v>
+      </c>
+      <c r="DF4" s="16">
+        <v>45040</v>
+      </c>
+      <c r="DG4" s="16">
+        <v>45041</v>
+      </c>
+      <c r="DH4" s="16">
+        <v>45042</v>
+      </c>
+      <c r="DI4" s="16">
+        <v>45043</v>
+      </c>
+      <c r="DJ4" s="16">
+        <v>45044</v>
+      </c>
+      <c r="DK4" s="17">
+        <v>45045</v>
+      </c>
+      <c r="DL4" s="17">
+        <v>45046</v>
+      </c>
+      <c r="DM4" s="16">
+        <v>45047</v>
+      </c>
+      <c r="DN4" s="16">
+        <v>45048</v>
+      </c>
+      <c r="DO4" s="16">
+        <v>45049</v>
+      </c>
+      <c r="DP4" s="16">
+        <v>45050</v>
+      </c>
+      <c r="DQ4" s="16">
+        <v>45051</v>
+      </c>
+      <c r="DR4" s="16">
+        <v>45052</v>
+      </c>
+      <c r="DS4" s="16">
+        <v>45053</v>
+      </c>
+      <c r="DT4" s="16">
+        <v>45054</v>
+      </c>
+      <c r="DU4" s="16">
+        <v>45055</v>
+      </c>
+      <c r="DV4" s="16">
+        <v>45056</v>
+      </c>
+      <c r="DW4" s="16">
+        <v>45057</v>
+      </c>
+      <c r="DX4" s="16">
+        <v>45058</v>
+      </c>
+      <c r="DY4" s="16">
+        <v>45059</v>
+      </c>
+      <c r="DZ4" s="16">
+        <v>45060</v>
+      </c>
+      <c r="EA4" s="16">
+        <v>45061</v>
+      </c>
+      <c r="EB4" s="16">
+        <v>45062</v>
+      </c>
+      <c r="EC4" s="16">
+        <v>45063</v>
+      </c>
+      <c r="ED4" s="16">
+        <v>45064</v>
+      </c>
+      <c r="EE4" s="16">
+        <v>45065</v>
+      </c>
+      <c r="EF4" s="16">
+        <v>45066</v>
+      </c>
+      <c r="EG4" s="16">
+        <v>45067</v>
+      </c>
+      <c r="EH4" s="16">
+        <v>45068</v>
+      </c>
+      <c r="EI4" s="16">
+        <v>45069</v>
+      </c>
+      <c r="EJ4" s="16">
+        <v>45070</v>
+      </c>
+      <c r="EK4" s="16">
+        <v>45071</v>
+      </c>
+      <c r="EL4" s="16">
+        <v>45072</v>
+      </c>
+      <c r="EM4" s="16">
+        <v>45073</v>
+      </c>
+      <c r="EN4" s="16">
+        <v>45074</v>
+      </c>
+      <c r="EO4" s="16">
+        <v>45075</v>
+      </c>
+      <c r="EP4" s="16">
+        <v>45076</v>
+      </c>
+      <c r="EQ4" s="16">
+        <v>45077</v>
+      </c>
+      <c r="ER4" s="16">
+        <v>45078</v>
+      </c>
+      <c r="ES4" s="16">
+        <v>45079</v>
+      </c>
+      <c r="ET4" s="16">
+        <v>45080</v>
+      </c>
+      <c r="EU4" s="16">
+        <v>45081</v>
+      </c>
+      <c r="EV4" s="16">
+        <v>45082</v>
+      </c>
+      <c r="EW4" s="16">
+        <v>45083</v>
+      </c>
+      <c r="EX4" s="16">
+        <v>45084</v>
+      </c>
+      <c r="EY4" s="16">
+        <v>45085</v>
+      </c>
+      <c r="EZ4" s="16">
+        <v>45086</v>
+      </c>
+      <c r="FA4" s="16">
+        <v>45087</v>
+      </c>
+      <c r="FB4" s="16">
+        <v>45088</v>
+      </c>
+      <c r="FC4" s="16">
+        <v>45089</v>
+      </c>
+      <c r="FD4" s="16">
+        <v>45090</v>
+      </c>
+      <c r="FE4" s="16">
+        <v>45091</v>
+      </c>
+      <c r="FF4" s="16">
+        <v>45092</v>
+      </c>
+      <c r="FG4" s="16">
+        <v>45093</v>
+      </c>
+      <c r="FH4" s="16">
+        <v>45094</v>
+      </c>
+      <c r="FI4" s="16">
+        <v>45095</v>
+      </c>
+      <c r="FJ4" s="16">
+        <v>45096</v>
+      </c>
+      <c r="FK4" s="16">
+        <v>45097</v>
+      </c>
+      <c r="FL4" s="16">
+        <v>45098</v>
+      </c>
+      <c r="FM4" s="16">
+        <v>45099</v>
+      </c>
+      <c r="FN4" s="16">
+        <v>45100</v>
+      </c>
+      <c r="FO4" s="16">
+        <v>45101</v>
+      </c>
+      <c r="FP4" s="16">
+        <v>45102</v>
+      </c>
+      <c r="FQ4" s="16">
+        <v>45103</v>
+      </c>
+      <c r="FR4" s="16">
+        <v>45104</v>
+      </c>
+      <c r="FS4" s="16">
+        <v>45105</v>
+      </c>
+      <c r="FT4" s="16">
+        <v>45106</v>
+      </c>
+      <c r="FU4" s="16">
+        <v>45107</v>
+      </c>
+      <c r="FV4" s="16">
+        <v>45108</v>
+      </c>
+      <c r="FW4" s="16">
+        <v>45109</v>
+      </c>
+      <c r="FX4" s="16">
+        <v>45110</v>
+      </c>
+      <c r="FY4" s="16">
+        <v>45111</v>
+      </c>
+      <c r="FZ4" s="16">
+        <v>45112</v>
+      </c>
+      <c r="GA4" s="16">
+        <v>45113</v>
+      </c>
+      <c r="GB4" s="16">
+        <v>45114</v>
+      </c>
+      <c r="GC4" s="16">
+        <v>45115</v>
+      </c>
+      <c r="GD4" s="16">
+        <v>45116</v>
+      </c>
+      <c r="GE4" s="16">
+        <v>45117</v>
+      </c>
+      <c r="GF4" s="16">
+        <v>45118</v>
+      </c>
+      <c r="GG4" s="16">
+        <v>45119</v>
+      </c>
+      <c r="GH4" s="16">
+        <v>45120</v>
+      </c>
+      <c r="GI4" s="16">
+        <v>45121</v>
+      </c>
+      <c r="GJ4" s="16">
+        <v>45122</v>
+      </c>
+      <c r="GK4" s="16">
+        <v>45123</v>
+      </c>
+      <c r="GL4" s="16">
+        <v>45124</v>
+      </c>
+      <c r="GM4" s="16">
+        <v>45125</v>
+      </c>
+      <c r="GN4" s="16">
+        <v>45126</v>
+      </c>
+      <c r="GO4" s="16">
+        <v>45127</v>
+      </c>
+      <c r="GP4" s="16">
+        <v>45128</v>
+      </c>
+      <c r="GQ4" s="16">
+        <v>45129</v>
+      </c>
+      <c r="GR4" s="16">
+        <v>45130</v>
+      </c>
+      <c r="GS4" s="16">
+        <v>45131</v>
+      </c>
+      <c r="GT4" s="16">
+        <v>45132</v>
+      </c>
+      <c r="GU4" s="16">
+        <v>45133</v>
+      </c>
+      <c r="GV4" s="16">
+        <v>45134</v>
+      </c>
+      <c r="GW4" s="16">
+        <v>45135</v>
+      </c>
+      <c r="GX4" s="16">
+        <v>45136</v>
+      </c>
+      <c r="GY4" s="16">
+        <v>45137</v>
+      </c>
+      <c r="GZ4" s="16">
+        <v>45138</v>
+      </c>
+      <c r="HA4" s="16">
+        <v>45139</v>
+      </c>
+      <c r="HB4" s="16">
+        <v>45140</v>
+      </c>
+      <c r="HC4" s="16">
+        <v>45141</v>
+      </c>
+      <c r="HD4" s="16">
+        <v>45142</v>
+      </c>
+      <c r="HE4" s="16">
+        <v>45143</v>
+      </c>
+      <c r="HF4" s="16">
+        <v>45144</v>
+      </c>
+      <c r="HG4" s="16">
+        <v>45145</v>
+      </c>
+      <c r="HH4" s="16">
+        <v>45146</v>
+      </c>
+      <c r="HI4" s="16">
+        <v>45147</v>
+      </c>
+      <c r="HJ4" s="16">
+        <v>45148</v>
+      </c>
+      <c r="HK4" s="16">
+        <v>45149</v>
+      </c>
+      <c r="HL4" s="16">
+        <v>45150</v>
+      </c>
+      <c r="HM4" s="16">
+        <v>45151</v>
+      </c>
+      <c r="HN4" s="16">
+        <v>45152</v>
+      </c>
+      <c r="HO4" s="16">
+        <v>45153</v>
+      </c>
+    </row>
+    <row r="5" spans="2:223" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:223" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B6" s="14">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="15">
+        <v>2</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="2:223" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B7" s="14">
+        <v>2</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="15">
+        <v>5</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+    </row>
+    <row r="8" spans="2:223" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B8" s="14">
+        <v>3</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="15">
+        <v>8</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+    </row>
+    <row r="9" spans="2:223" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B9" s="14">
+        <v>4</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="15">
+        <v>6</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+    </row>
+    <row r="10" spans="2:223" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B10" s="14">
+        <v>5</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="15">
+        <v>5</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="13"/>
+      <c r="AP10" s="13"/>
+    </row>
+    <row r="11" spans="2:223" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B11" s="14">
+        <v>6</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="15">
+        <v>2</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+    </row>
+    <row r="12" spans="2:223" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B12" s="14">
+        <v>7</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="15">
+        <v>4</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+    </row>
+    <row r="13" spans="2:223" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B13" s="14">
+        <v>8</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="15">
+        <v>5</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+    </row>
+    <row r="14" spans="2:223" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B14" s="14">
+        <v>9</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="15">
+        <v>12</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ14" s="13"/>
+      <c r="AR14" s="13"/>
+      <c r="AS14" s="13"/>
+      <c r="AT14" s="13"/>
+      <c r="AU14" s="13"/>
+      <c r="AV14" s="13"/>
+      <c r="AW14" s="13"/>
+      <c r="AX14" s="13"/>
+      <c r="AY14" s="13"/>
+      <c r="AZ14" s="13"/>
+      <c r="BA14" s="13"/>
+      <c r="BB14" s="13"/>
+      <c r="BC14" s="13"/>
+      <c r="BD14" s="13"/>
+      <c r="BE14" s="13"/>
+      <c r="BF14" s="13"/>
+    </row>
+    <row r="15" spans="2:223" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B15" s="14">
+        <v>10</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="15">
+        <v>5</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="BI15" s="13"/>
+      <c r="BJ15" s="13"/>
+      <c r="BK15" s="13"/>
+      <c r="BL15" s="13"/>
+      <c r="BM15" s="13"/>
+    </row>
+    <row r="16" spans="2:223" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="2:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="2:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="2:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="2:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="2:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="2:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="2:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B023C490-BDAD-4CE0-B133-166CA6CE8E75}">
   <dimension ref="C4:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -875,120 +2325,120 @@
     <col min="4" max="4" width="61.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:4" ht="87.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="3" t="s">
+    <row r="4" spans="3:4" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="3:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="5" t="s">
+    <row r="5" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="3:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="3:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="3:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="7" t="s">
+    <row r="8" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="3:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="3:4" ht="87.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="3" t="s">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="3:4" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="3:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="5" t="s">
+    <row r="11" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="3:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="7" t="s">
+    <row r="12" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="3:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="7" t="s">
+    <row r="13" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="3:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="7" t="s">
+    <row r="14" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="3:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="7" t="s">
+    <row r="15" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="3:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="7" t="s">
+    <row r="16" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="3:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="7" t="s">
+    <row r="17" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="3:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="7" t="s">
+    <row r="18" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="3:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="7" t="s">
+    <row r="19" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>49</v>
       </c>
     </row>
